--- a/eportal/csv/student_csv.xlsx
+++ b/eportal/csv/student_csv.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Osotech Software\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\smatechportal\eportal\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F23FFF1-72DC-4521-BA6A-9DFE9DCF4F43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D72C1E-B1EE-4561-AAC6-4B8BB6829A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{17ECF936-4513-4FE0-812E-E66F59A55373}"/>
   </bookViews>
@@ -20,14 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -71,9 +63,6 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Sango Ota, Ogun State, Nigeria</t>
-  </si>
-  <si>
     <t>osotech23@gmail.com</t>
   </si>
   <si>
@@ -105,6 +94,9 @@
   </si>
   <si>
     <t>Admission Year</t>
+  </si>
+  <si>
+    <t>Sango Ota Ogun State Nigeria</t>
   </si>
 </sst>
 </file>
@@ -485,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DAFE94-B4F7-4755-B0D9-5A08DA7ED25C}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,15 +528,15 @@
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -553,22 +545,22 @@
         <v>33749</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G2">
         <v>8131374443</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I2" s="2">
         <v>36592</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K2" s="4">
         <v>2021</v>
@@ -576,13 +568,13 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>36793</v>
@@ -591,19 +583,19 @@
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G3">
         <v>8132323456</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="2">
         <v>37111</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" s="4">
         <v>2021</v>
